--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -46,9 +46,6 @@
     <t>PUC</t>
   </si>
   <si>
-    <t>Pendiente aceptacion</t>
-  </si>
-  <si>
     <t>Implementado</t>
   </si>
   <si>
@@ -56,6 +53,18 @@
   </si>
   <si>
     <t>2Win</t>
+  </si>
+  <si>
+    <t>Que el texto POS VRC esté alineado en la parte inferior con el logo UC e icono de cajero (ver figura)</t>
+  </si>
+  <si>
+    <t>Que considere la versión del software arriba del icono de usuario como muestra la figura adjunta con el mismo color y tamaño de letra del nombre del usuario conectado.</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Pendiente aceptación</t>
   </si>
 </sst>
 </file>
@@ -91,9 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -110,8 +123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E6" totalsRowShown="0">
-  <autoFilter ref="A1:E6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
@@ -410,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -432,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -449,13 +462,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -466,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
@@ -483,13 +496,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
@@ -500,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
@@ -511,7 +524,41 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t>Pendiente aceptación</t>
+  </si>
+  <si>
+    <t>Aceptado Satisfactoriamente</t>
+  </si>
+  <si>
+    <t>Fecha Aceptacion</t>
+  </si>
+  <si>
+    <t>La versión debe estar ajustada al tope superior de la ventana</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>Pendiente aceptación, depende de issue 8</t>
   </si>
 </sst>
 </file>
@@ -100,22 +115,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,16 +164,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E8" totalsRowShown="0">
-  <autoFilter ref="A1:E8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F9" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:F9">
     <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Issue" dataDxfId="0"/>
-    <tableColumn id="3" name="2Win"/>
-    <tableColumn id="4" name="Versión"/>
-    <tableColumn id="5" name="PUC"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Id" dataDxfId="6"/>
+    <tableColumn id="2" name="Issue" dataDxfId="5"/>
+    <tableColumn id="3" name="2Win" dataDxfId="4"/>
+    <tableColumn id="4" name="Versión" dataDxfId="3"/>
+    <tableColumn id="5" name="PUC" dataDxfId="2"/>
+    <tableColumn id="6" name="Fecha Aceptacion" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -423,21 +466,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,113 +498,153 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3">
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45">
-      <c r="A4">
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5">
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="45">
-      <c r="A6">
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="45">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="2">
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4">
+        <v>43848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Pendiente aceptación, depende de issue 8</t>
+  </si>
+  <si>
+    <t>Se presenta la pantalla 5 para revisión</t>
   </si>
 </sst>
 </file>
@@ -141,9 +144,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -158,24 +158,27 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F9" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:F9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F10" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:F10">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="Id" dataDxfId="6"/>
-    <tableColumn id="2" name="Issue" dataDxfId="5"/>
-    <tableColumn id="3" name="2Win" dataDxfId="4"/>
-    <tableColumn id="4" name="Versión" dataDxfId="3"/>
-    <tableColumn id="5" name="PUC" dataDxfId="2"/>
-    <tableColumn id="6" name="Fecha Aceptacion" dataDxfId="1"/>
+    <tableColumn id="1" name="Id" dataDxfId="5"/>
+    <tableColumn id="2" name="Issue" dataDxfId="4"/>
+    <tableColumn id="3" name="2Win" dataDxfId="3"/>
+    <tableColumn id="4" name="Versión" dataDxfId="2"/>
+    <tableColumn id="5" name="PUC" dataDxfId="1"/>
+    <tableColumn id="6" name="Fecha Aceptacion" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -646,6 +649,24 @@
       </c>
       <c r="F9" s="5"/>
     </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Se presenta la pantalla 5 para revisión</t>
+  </si>
+  <si>
+    <t>Pantalla 5: Pantalla de cabecera: La versión situarla arriba de la primer letra del nombre del usuario conectado.</t>
+  </si>
+  <si>
+    <t>Pantalla 5: Campo de Moneda. Entendemos que es una lista desplegable con las monedas configuradas en Netsuite.</t>
+  </si>
+  <si>
+    <t>0.8</t>
   </si>
 </sst>
 </file>
@@ -167,8 +176,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F10" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:F10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F12" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:F12">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
   </autoFilter>
@@ -469,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -659,13 +668,49 @@
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5">
-        <v>0.7</v>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
